--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.400000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.400000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.729405931674886e-51</v>
+        <v>1.43163807937649e-51</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>2.677789601529637e-51</v>
+        <v>1.41702850115737e-51</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>2.628401888819773e-51</v>
+        <v>1.403155887406313e-51</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>2.581208194420982e-51</v>
+        <v>1.390032282584103e-51</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>2.536173919208954e-51</v>
+        <v>1.377669731151522e-51</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>2.493264464059374e-51</v>
+        <v>1.366080277569353e-51</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>2.452445229847935e-51</v>
+        <v>1.35527596629838e-51</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.413681617450323e-51</v>
+        <v>1.345268841799385e-51</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>2.376939027742226e-51</v>
+        <v>1.33607094853315e-51</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>2.342182861599335e-51</v>
+        <v>1.327694330960461e-51</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>2.309378519897352e-51</v>
+        <v>1.320151033542102e-51</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>2.278491403511934e-51</v>
+        <v>1.313453100738851e-51</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>2.249486913318788e-51</v>
+        <v>1.307612577011492e-51</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>2.2223304501936e-51</v>
+        <v>1.302641506820811e-51</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>2.196987415012059e-51</v>
+        <v>1.298551934627588e-51</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>2.173423208649856e-51</v>
+        <v>1.295355904892609e-51</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>2.151603231982677e-51</v>
+        <v>1.293065462076655e-51</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>2.13149288588621e-51</v>
+        <v>1.29169265064051e-51</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>2.113057571236147e-51</v>
+        <v>1.291249515044956e-51</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>2.096262688908174e-51</v>
+        <v>1.291748099750777e-51</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>2.08107363977798e-51</v>
+        <v>1.293200449218756e-51</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>2.067455824721254e-51</v>
+        <v>1.295618607909676e-51</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>2.055374644613684e-51</v>
+        <v>1.29901462028432e-51</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>2.044795500330959e-51</v>
+        <v>1.303400530803471e-51</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>2.035683792748768e-51</v>
+        <v>1.308788383927911e-51</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>2.028004922742798e-51</v>
+        <v>1.315190224118425e-51</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>2.02172429118874e-51</v>
+        <v>1.322618095835794e-51</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>2.016807298962281e-51</v>
+        <v>1.331084043540803e-51</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>2.013219346939111e-51</v>
+        <v>1.340600111694228e-51</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>2.010925835994916e-51</v>
+        <v>1.351178344756863e-51</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>2.009892167005386e-51</v>
+        <v>1.362830787189487e-51</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>2.010083740846209e-51</v>
+        <v>1.375569483452881e-51</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>2.011465958393075e-51</v>
+        <v>1.389406478007829e-51</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>2.014004220521672e-51</v>
+        <v>1.404353815315115e-51</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>2.017663928107688e-51</v>
+        <v>1.420423539835521e-51</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>2.022410482026812e-51</v>
+        <v>1.437627696029831e-51</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>2.028209283154733e-51</v>
+        <v>1.455978328358826e-51</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>2.035025732367139e-51</v>
+        <v>1.475487481283291e-51</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>2.042825230539719e-51</v>
+        <v>1.496167199264008e-51</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>2.051573178548162e-51</v>
+        <v>1.518029526761762e-51</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>2.061234977268155e-51</v>
+        <v>1.541086508237333e-51</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>2.071776027575388e-51</v>
+        <v>1.565350188151506e-51</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>2.083161730345549e-51</v>
+        <v>1.590832610965063e-51</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>2.095357486454326e-51</v>
+        <v>1.617545821138787e-51</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>2.10832869677741e-51</v>
+        <v>1.645501863133463e-51</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>2.122040762190487e-51</v>
+        <v>1.674712781409872e-51</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>2.136459083569247e-51</v>
+        <v>1.705190620428797e-51</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>2.151550178490734e-51</v>
+        <v>1.736948280557878e-51</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>2.167552674672995e-51</v>
+        <v>1.770207223689974e-51</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>2.185330677453524e-51</v>
+        <v>1.805668315263119e-51</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.205835844629846e-51</v>
+        <v>1.844099526169538e-51</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.230019833999487e-51</v>
+        <v>1.886268827301457e-51</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.258834303359972e-51</v>
+        <v>1.9329441895511e-51</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.29323091050883e-51</v>
+        <v>1.984893583810692e-51</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.334161313243585e-51</v>
+        <v>2.042884980972456e-51</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>2.382577169361763e-51</v>
+        <v>2.107686351928618e-51</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.439430136660892e-51</v>
+        <v>2.180065667571403e-51</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.505671872938497e-51</v>
+        <v>2.260790898793035e-51</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>2.582254035992104e-51</v>
+        <v>2.35063001648574e-51</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.67012828361924e-51</v>
+        <v>2.450350991541741e-51</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.770246273617431e-51</v>
+        <v>2.560721794853263e-51</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.883559663784202e-51</v>
+        <v>2.682510397312532e-51</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>3.01102011191708e-51</v>
+        <v>2.816484769811772e-51</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>3.153579275813592e-51</v>
+        <v>2.963412883243206e-51</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>3.312188813271263e-51</v>
+        <v>3.124062708499062e-51</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>3.487800382087528e-51</v>
+        <v>3.299202216471473e-51</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>3.681442885836446e-51</v>
+        <v>3.489710656699634e-51</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>3.894972995488185e-51</v>
+        <v>3.69765974308851e-51</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>4.13074987128716e-51</v>
+        <v>3.925845065062248e-51</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>4.391139738314612e-51</v>
+        <v>4.177072389500898e-51</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>4.678508821651786e-51</v>
+        <v>4.454147483284506e-51</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>4.995223346379919e-51</v>
+        <v>4.759876113293115e-51</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>5.343649537580256e-51</v>
+        <v>5.097064046406775e-51</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>5.726153620334034e-51</v>
+        <v>5.468517049505529e-51</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>6.145101819722498e-51</v>
+        <v>5.877040889469425e-51</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>6.602860360826892e-51</v>
+        <v>6.32544133317851e-51</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>7.10179546872845e-51</v>
+        <v>6.816524147512825e-51</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>7.644273368508423e-51</v>
+        <v>7.353095099352424e-51</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>8.232660285248044e-51</v>
+        <v>7.937959955577349e-51</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>8.869322444028556e-51</v>
+        <v>8.573924483067643e-51</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>9.555677334496182e-51</v>
+        <v>9.262803062846299e-51</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>1.02824111912663e-50</v>
+        <v>9.995196397103061e-51</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>1.103342568886847e-50</v>
+        <v>1.075461562789621e-50</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>1.179251550264755e-50</v>
+        <v>1.152446008794865e-50</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.254347530794807e-50</v>
+        <v>1.228812910998296e-50</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.327009978011562e-50</v>
+        <v>1.30290220267228e-50</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.395618359449469e-50</v>
+        <v>1.373053817089071e-50</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.458552142643017e-50</v>
+        <v>1.437607687520963e-50</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.514190795126691e-50</v>
+        <v>1.494903747240245e-50</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.560913784434979e-50</v>
+        <v>1.543281929519212e-50</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.597100578102368e-50</v>
+        <v>1.581082167630156e-50</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.621130643663343e-50</v>
+        <v>1.606644394845368e-50</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.631383448652393e-50</v>
+        <v>1.61830854443714e-50</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.626238460604004e-50</v>
+        <v>1.614414549677765e-50</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>1.604243753843649e-50</v>
+        <v>1.59347382222353e-50</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.565962339918822e-50</v>
+        <v>1.556047027955057e-50</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.513283734229069e-50</v>
+        <v>1.504043928691408e-50</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.448120784328578e-50</v>
+        <v>1.439398015783228e-50</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.37238633777154e-50</v>
+        <v>1.364042780581167e-50</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.287993242112144e-50</v>
+        <v>1.279911714435873e-50</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.196854344904577e-50</v>
+        <v>1.188938308697995e-50</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.100882493703031e-50</v>
+        <v>1.093056054718183e-50</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.001990536061742e-50</v>
+        <v>9.941984438471328e-51</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>9.020913195348031e-51</v>
+        <v>8.942989674353964e-51</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>8.030976916764508e-51</v>
+        <v>7.952911168336705e-51</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>7.069225000408743e-51</v>
+        <v>6.991083833926034e-51</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>6.154785921822626e-51</v>
+        <v>6.076842584628438e-51</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>5.306788156548054e-51</v>
+        <v>5.22952233395041e-51</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>4.544360180126915e-51</v>
+        <v>4.46845799539843e-51</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>3.885230294549085e-51</v>
+        <v>3.811550108124626e-51</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>3.327460575569488e-51</v>
+        <v>3.256552615512442e-51</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>2.854605192241919e-51</v>
+        <v>2.786357182424499e-51</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>2.449879825715249e-51</v>
+        <v>2.383508717873482e-51</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>2.097880039300857e-51</v>
+        <v>2.032064526226043e-51</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.791166002148021e-51</v>
+        <v>1.724811376721026e-51</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.525149247600688e-51</v>
+        <v>1.457661225716618e-51</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.295244929998272e-51</v>
+        <v>1.22652999829882e-51</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.096878941631684e-51</v>
+        <v>1.027341718058183e-51</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>9.263045896342974e-52</v>
+        <v>8.566444403539058e-52</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>7.811757971271263e-52</v>
+        <v>7.120425574962756e-52</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>6.592819187849542e-52</v>
+        <v>5.912426035359645e-52</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>5.584123092826081e-52</v>
+        <v>4.919511125236876e-52</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>4.763563232947739e-52</v>
+        <v>4.118746185100217e-52</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>4.109033154962886e-52</v>
+        <v>3.487196555456916e-52</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>3.598426405619352e-52</v>
+        <v>3.001927576813692e-52</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>3.209636531664966e-52</v>
+        <v>2.640004589677263e-52</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.920557079847556e-52</v>
+        <v>2.378492934554348e-52</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.709081596914952e-52</v>
+        <v>2.194457951951664e-52</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.553103629614986e-52</v>
+        <v>2.064964982375932e-52</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.430516724695485e-52</v>
+        <v>1.967079366333868e-52</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>2.319214428904279e-52</v>
+        <v>1.877866444332193e-52</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>2.197096354648539e-52</v>
+        <v>1.774398128734709e-52</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>2.050454747787633e-52</v>
+        <v>1.64283935617597e-52</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.890630280181368e-52</v>
+        <v>1.496493856717351e-52</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.73361615005714e-52</v>
+        <v>1.353706154280908e-52</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.595405555642343e-52</v>
+        <v>1.232820772788698e-52</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.4915033958248e-52</v>
+        <v>1.151589330445199e-52</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.427181408365931e-52</v>
+        <v>1.115338075914065e-52</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.398003562896731e-52</v>
+        <v>1.117605834114981e-52</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.399150699825362e-52</v>
+        <v>1.151466224532396e-52</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.42580365956e-52</v>
+        <v>1.209992866650811e-52</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.473143282508821e-52</v>
+        <v>1.286259379954687e-52</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.536350409079997e-52</v>
+        <v>1.373339383928491e-52</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.610605879681699e-52</v>
+        <v>1.464306498056693e-52</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.691090534722097e-52</v>
+        <v>1.55223434182376e-52</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.772985878365909e-52</v>
+        <v>1.630197676947289e-52</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.852929032882473e-52</v>
+        <v>1.693776182395107e-52</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.932099206583049e-52</v>
+        <v>1.746365838431589e-52</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>2.012559067741166e-52</v>
+        <v>1.792882937614791e-52</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>2.096371284630349e-52</v>
+        <v>1.838243772502777e-52</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>2.185598525524125e-52</v>
+        <v>1.887364635653602e-52</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>2.282303458696023e-52</v>
+        <v>1.94516181962533e-52</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>2.388548752419569e-52</v>
+        <v>2.016551616976018e-52</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>2.506397074968289e-52</v>
+        <v>2.106450320263728e-52</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>2.637911094615711e-52</v>
+        <v>2.219774222046517e-52</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>2.785351467907038e-52</v>
+        <v>2.3612006862764e-52</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>2.952295077417563e-52</v>
+        <v>2.533818679532385e-52</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>3.142855749915363e-52</v>
+        <v>2.740069194013885e-52</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>3.361148896074687e-52</v>
+        <v>2.982391310491462e-52</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>3.611289926569655e-52</v>
+        <v>3.263224109735531e-52</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>3.897394252074757e-52</v>
+        <v>3.58500667251693e-52</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>4.223577283264128e-52</v>
+        <v>3.95017807960609e-52</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>4.593954430812017e-52</v>
+        <v>4.361177411773576e-52</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>5.012641105392675e-52</v>
+        <v>4.820443749789951e-52</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>5.483752717680353e-52</v>
+        <v>5.33041617442578e-52</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>6.011404678349296e-52</v>
+        <v>5.893533766451621e-52</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>6.599712398073755e-52</v>
+        <v>6.512235606638037e-52</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>7.252791287527978e-52</v>
+        <v>7.188960775755595e-52</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>7.974752041845492e-52</v>
+        <v>7.926144170275119e-52</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>8.763180788485991e-52</v>
+        <v>8.720431160427642e-52</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>9.596190607326033e-52</v>
+        <v>9.551187853573824e-52</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>1.044827762972268e-51</v>
+        <v>1.039457088490566e-51</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>1.129393798703298e-51</v>
+        <v>1.122673688961517e-51</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>1.210766781061402e-51</v>
+        <v>1.202384250289435e-51</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>1.286396323182284e-51</v>
+        <v>1.276204435993521e-51</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>1.35373203820165e-51</v>
+        <v>1.341749909592976e-51</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>1.410223539255184e-51</v>
+        <v>1.396636334606977e-51</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>1.453320439478646e-51</v>
+        <v>1.438479374554777e-51</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>1.480510119064375e-51</v>
+        <v>1.464929998493313e-51</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>1.490924219932398e-51</v>
+        <v>1.475176270229574e-51</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>1.485938174224218e-51</v>
+        <v>1.470503801735515e-51</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>1.467088731235184e-51</v>
+        <v>1.452349008073686e-51</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>1.435912640260649e-51</v>
+        <v>1.422148304306635e-51</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>1.393946650595961e-51</v>
+        <v>1.381338105496909e-51</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>1.342727511536471e-51</v>
+        <v>1.331354826707057e-51</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>1.283791972377531e-51</v>
+        <v>1.273634882999625e-51</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>1.218676782414489e-51</v>
+        <v>1.209614689437162e-51</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>1.148918517697255e-51</v>
+        <v>1.140730543344581e-51</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>1.075943661015934e-51</v>
+        <v>1.068343922647391e-51</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>1.00088003791833e-51</v>
+        <v>9.936133377548561e-52</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>9.248053174647458e-52</v>
+        <v>9.176632127182029e-52</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>8.487971687154862e-52</v>
+        <v>8.4161797158866e-52</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>7.739332607308551e-52</v>
+        <v>7.666020384174559e-52</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>7.012912625711564e-52</v>
+        <v>6.937398372558181e-52</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>6.31948843296694e-52</v>
+        <v>6.241557921549746e-52</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>5.669836719677724e-52</v>
+        <v>5.589743271661535e-52</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>5.074734176447223e-52</v>
+        <v>4.9931986634061e-52</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>4.543097174101442e-52</v>
+        <v>4.461235487403013e-52</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>4.073187464544971e-52</v>
+        <v>3.992095113249902e-52</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>3.659480256040638e-52</v>
+        <v>3.580084737203813e-52</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>3.296446213201003e-52</v>
+        <v>3.219506834723769e-52</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>2.97855600063862e-52</v>
+        <v>2.904663881268788e-52</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>2.700280282966048e-52</v>
+        <v>2.629858352297892e-52</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>2.456089724795845e-52</v>
+        <v>2.3893927232701e-52</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>2.240454990740569e-52</v>
+        <v>2.177569469644431e-52</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>2.047846745412776e-52</v>
+        <v>1.988691066879905e-52</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.872807374873216e-52</v>
+        <v>1.817134430921128e-52</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.712054442228565e-52</v>
+        <v>1.659534118064576e-52</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.564820243862709e-52</v>
+        <v>1.515134754132536e-52</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.430477157113033e-52</v>
+        <v>1.383326356520707e-52</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>1.30839755931692e-52</v>
+        <v>1.263498942624782e-52</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>1.197953827811756e-52</v>
+        <v>1.15504252984046e-52</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>1.098518339934925e-52</v>
+        <v>1.057347135563435e-52</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>1.009463473023854e-52</v>
+        <v>9.698027771894462e-53</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>9.301616044158384e-53</v>
+        <v>8.917994721141033e-53</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>8.599851114483109e-53</v>
+        <v>8.227272377331478e-53</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>7.983063714586558e-53</v>
+        <v>7.619760914422765e-53</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>7.444977617842573e-53</v>
+        <v>7.089360506371853e-53</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>6.979316597625e-53</v>
+        <v>6.629971327135707e-53</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>6.579804427307689e-53</v>
+        <v>6.23549355067129e-53</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>6.240164880264482e-53</v>
+        <v>5.899827350935567e-53</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>5.954121729869231e-53</v>
+        <v>5.616872901885501e-53</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>5.715398749495776e-53</v>
+        <v>5.380530377478052e-53</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>5.517719712517969e-53</v>
+        <v>5.184699951670187e-53</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>5.354808392309653e-53</v>
+        <v>5.02328179841887e-53</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>5.220388562244673e-53</v>
+        <v>4.89017609168106e-53</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>5.10818399569688e-53</v>
+        <v>4.779283005413725e-53</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>5.011918466040116e-53</v>
+        <v>4.684502713573824e-53</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.92531574664823e-53</v>
+        <v>4.599735390118324e-53</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.842099610895066e-53</v>
+        <v>4.518881209004185e-53</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.755993832154473e-53</v>
+        <v>4.435840344188374e-53</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.660722183800296e-53</v>
+        <v>4.344512969627852e-53</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.550008439206381e-53</v>
+        <v>4.238799259279581e-53</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.417576371746643e-53</v>
+        <v>4.112599387100595e-53</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.257214937166476e-53</v>
+        <v>3.959876867882061e-53</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.067004590314496e-53</v>
+        <v>3.778765471757998e-53</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.851906178787463e-53</v>
+        <v>3.574084976229217e-53</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.617499956791809e-53</v>
+        <v>3.351257065883373e-53</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.36936617853397e-53</v>
+        <v>3.115703425308122e-53</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.113085098220379e-53</v>
+        <v>2.872845739091116e-53</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.85423697005747e-53</v>
+        <v>2.628105691820013e-53</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.598402048251679e-53</v>
+        <v>2.386904968082465e-53</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.351160587009437e-53</v>
+        <v>2.154665252466126e-53</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.118092840537182e-53</v>
+        <v>1.936808229558653e-53</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>1.904779063041346e-53</v>
+        <v>1.738755583947698e-53</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.716799508728363e-53</v>
+        <v>1.565929000220917e-53</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.559734431804669e-53</v>
+        <v>1.423750162965965e-53</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.439164086476696e-53</v>
+        <v>1.317640756770494e-53</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.360616969381278e-53</v>
+        <v>1.252971387799416e-53</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.325791322573508e-53</v>
+        <v>1.231332667054688e-53</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.329989342424162e-53</v>
+        <v>1.248003086791886e-53</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.367905627989952e-53</v>
+        <v>1.297661514657019e-53</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>1.434234778327589e-53</v>
+        <v>1.374986818296082e-53</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>1.523671392493779e-53</v>
+        <v>1.474657865355066e-53</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>1.630910069545228e-53</v>
+        <v>1.591353523479963e-53</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>1.750645408538639e-53</v>
+        <v>1.719752660316765e-53</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>1.87757200853072e-53</v>
+        <v>1.854534143511463e-53</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>2.006384468578174e-53</v>
+        <v>1.99037684071005e-53</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>2.131777387737708e-53</v>
+        <v>2.121959619558519e-53</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.248445365066026e-53</v>
+        <v>2.243961347702859e-53</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.351082999619832e-53</v>
+        <v>2.351060892789065e-53</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>2.434384890455835e-53</v>
+        <v>2.437937122463126e-53</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>2.493178181401809e-53</v>
+        <v>2.499403002660048e-53</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>2.525690309909964e-53</v>
+        <v>2.53371164677208e-53</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>2.533756733523564e-53</v>
+        <v>2.54276647681563e-53</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>2.519387045649135e-53</v>
+        <v>2.52864709166516e-53</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>2.484590839693196e-53</v>
+        <v>2.493433090195127e-53</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>2.431377709062268e-53</v>
+        <v>2.439204071279988e-53</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>2.361757247162876e-53</v>
+        <v>2.368039633794205e-53</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>2.277739047401539e-53</v>
+        <v>2.282019376612235e-53</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>2.181332703184781e-53</v>
+        <v>2.183222898608537e-53</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>2.074547807919124e-53</v>
+        <v>2.073729798657571e-53</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.959393955011089e-53</v>
+        <v>1.955619675633793e-53</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.8378807378672e-53</v>
+        <v>1.830972128411665e-53</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.712017749893976e-53</v>
+        <v>1.701866755865645e-53</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.583814584497941e-53</v>
+        <v>1.57038315687019e-53</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.455280835085618e-53</v>
+        <v>1.438600930299761e-53</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>1.328426095063647e-53</v>
+        <v>1.30859967502894e-53</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>1.20525995783819e-53</v>
+        <v>1.182458989931813e-53</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>1.08779201681624e-53</v>
+        <v>1.062258473883325e-53</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>9.780318654039713e-54</v>
+        <v>9.500777257575755e-54</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>8.778443852384787e-54</v>
+        <v>8.478462964103773e-54</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>7.87584564826146e-54</v>
+        <v>7.559281662292384e-54</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>7.067093281066688e-54</v>
+        <v>6.737561348871927e-54</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>6.346637052275559e-54</v>
+        <v>6.007506696812756e-54</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>5.708927263363147e-54</v>
+        <v>5.363322379085221e-54</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>5.148414215804534e-54</v>
+        <v>4.799213068659672e-54</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>4.659548211074804e-54</v>
+        <v>4.309383438506466e-54</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>4.236779550649034e-54</v>
+        <v>3.888038161595954e-54</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>3.874558536002307e-54</v>
+        <v>3.529381910898488e-54</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>3.567335468609704e-54</v>
+        <v>3.227619359384422e-54</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>3.309560649946305e-54</v>
+        <v>2.976955180024107e-54</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>3.095684381487192e-54</v>
+        <v>2.771594045787897e-54</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>2.920156964707445e-54</v>
+        <v>2.605740629646144e-54</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>2.777428701082145e-54</v>
+        <v>2.4735996045692e-54</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>2.661949892086374e-54</v>
+        <v>2.369375643527419e-54</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>2.56817083919521e-54</v>
+        <v>2.287273419491152e-54</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>2.490541843883736e-54</v>
+        <v>2.221497605430753e-54</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>2.423513207627034e-54</v>
+        <v>2.166252874316574e-54</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>2.36154236786024e-54</v>
+        <v>2.115751363939522e-54</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>2.300659632202367e-54</v>
+        <v>2.065850567947785e-54</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>2.240434546330218e-54</v>
+        <v>2.01611032372294e-54</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>2.18092021546795e-54</v>
+        <v>1.96659631302059e-54</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>2.122169744839718e-54</v>
+        <v>1.917374217596335e-54</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>2.06423623966968e-54</v>
+        <v>1.868509719205776e-54</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>2.007172805181991e-54</v>
+        <v>1.820068499604514e-54</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.951032546600808e-54</v>
+        <v>1.772116240548152e-54</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.895868569150286e-54</v>
+        <v>1.724718623792287e-54</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.841733978054583e-54</v>
+        <v>1.677941331092524e-54</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.788681878537854e-54</v>
+        <v>1.631850044204461e-54</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.736765375824255e-54</v>
+        <v>1.5865104448837e-54</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.686037575137943e-54</v>
+        <v>1.541988214885843e-54</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.636551581703072e-54</v>
+        <v>1.498349035966489e-54</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.588360500743801e-54</v>
+        <v>1.45565858988124e-54</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.541517437484329e-54</v>
+        <v>1.413982558385737e-54</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.496075497148678e-54</v>
+        <v>1.373386623235461e-54</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.452087784961182e-54</v>
+        <v>1.33393646618617e-54</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.409607406145866e-54</v>
+        <v>1.295697768993349e-54</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.368687465926929e-54</v>
+        <v>1.258736213412638e-54</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.329381069528527e-54</v>
+        <v>1.223117481199637e-54</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.291741322174818e-54</v>
+        <v>1.188907254109948e-54</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.255821329089957e-54</v>
+        <v>1.156171213899171e-54</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.2216741954981e-54</v>
+        <v>1.124975042322908e-54</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.189353026623403e-54</v>
+        <v>1.09538442113676e-54</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.158910927690023e-54</v>
+        <v>1.067465032096326e-54</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.130401003922115e-54</v>
+        <v>1.041282556957209e-54</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.103876360543837e-54</v>
+        <v>1.016902677475009e-54</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.079390102779343e-54</v>
+        <v>9.943910754053273e-55</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.056995335852791e-54</v>
+        <v>9.738134325037651e-55</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.036745164988336e-54</v>
+        <v>9.552354305259228e-55</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.018692695410134e-54</v>
+        <v>9.387227512274016e-55</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.002891032342342e-54</v>
+        <v>9.243410763638023e-55</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>9.893932810091158e-55</v>
+        <v>9.121560876907261e-55</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>9.782525466346117e-55</v>
+        <v>9.022334669637737e-55</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>9.695219344429861e-55</v>
+        <v>8.946388959385465e-55</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>9.632545496583945e-55</v>
+        <v>8.894380563706452e-55</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>9.595034975049935e-55</v>
+        <v>8.866966300156705e-55</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>9.583207738039849e-55</v>
+        <v>8.864791902989351e-55</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>9.597480390289882e-55</v>
+        <v>8.888399852912656e-55</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>9.638213296296156e-55</v>
+        <v>8.938276444772693e-55</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>9.705766257504589e-55</v>
+        <v>9.014907410909726e-55</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>9.800499075361087e-55</v>
+        <v>9.118778483664016e-55</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>9.922771551311574e-55</v>
+        <v>9.250375395375837e-55</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.007294348680196e-54</v>
+        <v>9.410183878385446e-55</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.025137468327815e-54</v>
+        <v>9.598689665033115e-55</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.045842494218608e-54</v>
+        <v>9.816378487659105e-55</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.069445406497165e-54</v>
+        <v>1.006373607860368e-54</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.095982185308077e-54</v>
+        <v>1.034124817020712e-54</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.125488810795936e-54</v>
+        <v>1.064940049480967e-54</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.158001263105335e-54</v>
+        <v>1.09886787847516e-54</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.193555522380863e-54</v>
+        <v>1.135956877237319e-54</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>1.232187568767073e-54</v>
+        <v>1.176255619001429e-54</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>1.273933382408675e-54</v>
+        <v>1.219812677001638e-54</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>1.318828943450097e-54</v>
+        <v>1.266676624471804e-54</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>1.366910232036057e-54</v>
+        <v>1.316896034646085e-54</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>1.418213228311103e-54</v>
+        <v>1.370519480758464e-54</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.472773912419829e-54</v>
+        <v>1.427595536042967e-54</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.530628264506825e-54</v>
+        <v>1.488172773733621e-54</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.591812264716682e-54</v>
+        <v>1.552299767064452e-54</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.656361893193993e-54</v>
+        <v>1.620025089269487e-54</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.724311443411535e-54</v>
+        <v>1.691395528733395e-54</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>1.795254674442245e-54</v>
+        <v>1.765991696879245e-54</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.867758203250141e-54</v>
+        <v>1.842307275283916e-54</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.940242540287023e-54</v>
+        <v>1.918681334465621e-54</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>2.011128196004687e-54</v>
+        <v>1.993452944942576e-54</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>2.078835680854932e-54</v>
+        <v>2.064961177232996e-54</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>2.141785505289553e-54</v>
+        <v>2.131545101855093e-54</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>2.19839817976035e-54</v>
+        <v>2.191543789327084e-54</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>2.24709421471912e-54</v>
+        <v>2.243296310167181e-54</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>2.28629412061766e-54</v>
+        <v>2.285141734893601e-54</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>2.314418407907768e-54</v>
+        <v>2.315419134024557e-54</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>2.329887587041241e-54</v>
+        <v>2.332467578078264e-54</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>2.331122168469875e-54</v>
+        <v>2.334626137572935e-54</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>2.316542662645471e-54</v>
+        <v>2.320233883026786e-54</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>2.284601390412242e-54</v>
+        <v>2.287663553679022e-54</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>2.235380685065872e-54</v>
+        <v>2.237013124777231e-54</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>2.171341026530454e-54</v>
+        <v>2.170897646940331e-54</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>2.095131056864126e-54</v>
+        <v>2.092131325148776e-54</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>2.009399418125031e-54</v>
+        <v>2.003528364383023e-54</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.916794752371307e-54</v>
+        <v>1.907902969623528e-54</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.819965701661096e-54</v>
+        <v>1.808069345850748e-54</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.721560908052537e-54</v>
+        <v>1.706841698045138e-54</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.624229013603771e-54</v>
+        <v>1.607034231187155e-54</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>1.530618660372939e-54</v>
+        <v>1.511461150257254e-54</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>1.443096303829707e-54</v>
+        <v>1.422632974467543e-54</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>1.362107088464508e-54</v>
+        <v>1.340992531563561e-54</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>1.28729533181698e-54</v>
+        <v>1.266120809083692e-54</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>1.218302700239628e-54</v>
+        <v>1.197595941391029e-54</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.15477086008496e-54</v>
+        <v>1.134996062848665e-54</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.096341477705481e-54</v>
+        <v>1.077899307819696e-54</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.042656219453746e-54</v>
+        <v>1.025883810667262e-54</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>9.933567516821593e-55</v>
+        <v>9.785277057543578e-55</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>9.480847407432792e-55</v>
+        <v>9.354091274441284e-55</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>9.064818529896131e-55</v>
+        <v>8.961062100996686e-55</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>8.681897547736662e-55</v>
+        <v>8.601970880840715e-55</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>8.328501124479448e-55</v>
+        <v>8.272598957604314e-55</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>8.001045923649545e-55</v>
+        <v>7.968727674918413e-55</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>7.695948608772018e-55</v>
+        <v>7.686138376413958e-55</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>7.409625843371927e-55</v>
+        <v>7.42061240572188e-55</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>7.138494290974327e-55</v>
+        <v>7.167931106473121e-55</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>6.878970615104284e-55</v>
+        <v>6.923875822298615e-55</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>6.627471479286854e-55</v>
+        <v>6.684227896829304e-55</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>6.380468933215345e-55</v>
+        <v>6.444838158771763e-55</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>6.136362727296733e-55</v>
+        <v>6.20397584623241e-55</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>5.895933631720347e-55</v>
+        <v>5.962897321087439e-55</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>5.660109736286896e-55</v>
+        <v>5.723043765984453e-55</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>5.429819130797089e-55</v>
+        <v>5.485856363571053e-55</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>5.205989905051636e-55</v>
+        <v>5.252776296494841e-55</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>4.989550148851247e-55</v>
+        <v>5.02524474740342e-55</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>4.781427951996631e-55</v>
+        <v>4.804702898944392e-55</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>4.582551404288497e-55</v>
+        <v>4.592591933765359e-55</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>4.393848595527555e-55</v>
+        <v>4.390353034513925e-55</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>4.216247615514514e-55</v>
+        <v>4.199427383837688e-55</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>4.050676554050084e-55</v>
+        <v>4.021256164384258e-55</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>3.897790854704417e-55</v>
+        <v>3.856931089814423e-55</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>3.756886496130935e-55</v>
+        <v>3.705801356292685e-55</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>3.626836578264212e-55</v>
+        <v>3.56667412792568e-55</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>3.506514066516214e-55</v>
+        <v>3.438356396393376e-55</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>3.394791926298898e-55</v>
+        <v>3.319655153375737e-55</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>3.290543123024225e-55</v>
+        <v>3.209377390552728e-55</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>3.192640622104158e-55</v>
+        <v>3.106330099604318e-55</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>3.099983666783924e-55</v>
+        <v>3.009347334622227e-55</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>3.011964088025921e-55</v>
+        <v>2.917770444629683e-55</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>2.928411194053828e-55</v>
+        <v>2.831391317690095e-55</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>2.849169500170758e-55</v>
+        <v>2.750017502984783e-55</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>2.774083521679826e-55</v>
+        <v>2.673456549695067e-55</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>2.702997773884151e-55</v>
+        <v>2.601516007002273e-55</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>2.635756772086906e-55</v>
+        <v>2.534003424087781e-55</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>2.572205031591082e-55</v>
+        <v>2.470726350132786e-55</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>2.512187067699857e-55</v>
+        <v>2.411492334318676e-55</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>2.45554739571635e-55</v>
+        <v>2.356108925826773e-55</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>2.402130530943674e-55</v>
+        <v>2.304383673838398e-55</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>2.351780988684946e-55</v>
+        <v>2.256124127534873e-55</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>2.30434328424328e-55</v>
+        <v>2.211137836097519e-55</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>2.259661932921792e-55</v>
+        <v>2.16923234870766e-55</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>2.217581450023597e-55</v>
+        <v>2.130215214546616e-55</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>2.177946350851812e-55</v>
+        <v>2.093893982795709e-55</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>2.14060115070955e-55</v>
+        <v>2.06007620263626e-55</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>2.105390364899929e-55</v>
+        <v>2.028569423249592e-55</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>2.072158508726062e-55</v>
+        <v>1.999181193817025e-55</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>2.040750097491067e-55</v>
+        <v>1.971719063519884e-55</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>2.011009646498057e-55</v>
+        <v>1.945990581539487e-55</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>1.982781671050149e-55</v>
+        <v>1.921803297057158e-55</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>1.955910686450457e-55</v>
+        <v>1.898964759254219e-55</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>1.930241208002098e-55</v>
+        <v>1.877282517311989e-55</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>1.905617751008186e-55</v>
+        <v>1.856564120411792e-55</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>1.881884830771838e-55</v>
+        <v>1.836617117734951e-55</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>1.858886962596169e-55</v>
+        <v>1.817249058462784e-55</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>1.836468661784294e-55</v>
+        <v>1.798267491776616e-55</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>1.814481344485081e-55</v>
+        <v>1.779488614686491e-55</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>1.792876252820757e-55</v>
+        <v>1.760853721610896e-55</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>1.771679757257717e-55</v>
+        <v>1.742398254421526e-55</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>1.750920064150793e-55</v>
+        <v>1.724159955642686e-55</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>1.73062537985482e-55</v>
+        <v>1.706176567798682e-55</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>1.710823910724631e-55</v>
+        <v>1.688485833413816e-55</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>1.69154386311506e-55</v>
+        <v>1.671125495012394e-55</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>1.672813443380942e-55</v>
+        <v>1.65413329511872e-55</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>1.654660857877108e-55</v>
+        <v>1.637546976257098e-55</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>1.637114312958394e-55</v>
+        <v>1.621404280951834e-55</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>1.620202014979632e-55</v>
+        <v>1.605742951727231e-55</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>1.603952170295658e-55</v>
+        <v>1.590600731107594e-55</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>1.588392985261304e-55</v>
+        <v>1.576015361617229e-55</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>1.573552666231404e-55</v>
+        <v>1.562024585780437e-55</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>1.559459419560792e-55</v>
+        <v>1.548666146121526e-55</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>1.546141451604314e-55</v>
+        <v>1.535977785164811e-55</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>1.533626968716779e-55</v>
+        <v>1.523997245434571e-55</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>1.521944177253032e-55</v>
+        <v>1.512762269455125e-55</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>1.511121283567909e-55</v>
+        <v>1.502310599750776e-55</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>1.501186494016241e-55</v>
+        <v>1.49267997884583e-55</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>1.492168014952864e-55</v>
+        <v>1.483908149264589e-55</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>1.484094052732612e-55</v>
+        <v>1.476032853531361e-55</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>1.476992813710317e-55</v>
+        <v>1.469091834170447e-55</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>1.470892504240813e-55</v>
+        <v>1.463122833706154e-55</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>1.465821330678935e-55</v>
+        <v>1.458163594662785e-55</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>1.461807499379515e-55</v>
+        <v>1.454251859564646e-55</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>1.458879216697389e-55</v>
+        <v>1.451425370936039e-55</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>1.457064688987388e-55</v>
+        <v>1.449721871301271e-55</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>1.456392122604348e-55</v>
+        <v>1.449179103184645e-55</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>1.456889723903102e-55</v>
+        <v>1.449834809110467e-55</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>1.458585699238484e-55</v>
+        <v>1.45172673160304e-55</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>1.461508254965327e-55</v>
+        <v>1.454892613186669e-55</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>1.465685597438465e-55</v>
+        <v>1.459370196385659e-55</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>1.471145933012731e-55</v>
+        <v>1.465197223724314e-55</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>1.477917468042961e-55</v>
+        <v>1.472411437726937e-55</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>1.486028408883987e-55</v>
+        <v>1.481050580917836e-55</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>1.495506961890642e-55</v>
+        <v>1.491152395821313e-55</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>1.506380259300411e-55</v>
+        <v>1.502753401943205e-55</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>1.518608579164313e-55</v>
+        <v>1.515813996841808e-55</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>1.532047167213117e-55</v>
+        <v>1.530174985493471e-55</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>1.546542067509051e-55</v>
+        <v>1.545666695611012e-55</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.561939324114342e-55</v>
+        <v>1.562119454907248e-55</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.578084981091218e-55</v>
+        <v>1.579363591094993e-55</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.594825082501908e-55</v>
+        <v>1.597229431887066e-55</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.612005672408637e-55</v>
+        <v>1.615547304996283e-55</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.629472794873634e-55</v>
+        <v>1.63414753813546e-55</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.647072493959128e-55</v>
+        <v>1.652860459017414e-55</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.664650813727345e-55</v>
+        <v>1.671516395354962e-55</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.682053798240514e-55</v>
+        <v>1.689945674860919e-55</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.699127491560861e-55</v>
+        <v>1.707978625248103e-55</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.715717937750615e-55</v>
+        <v>1.725445574229331e-55</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.731671180872004e-55</v>
+        <v>1.742176849517417e-55</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.74683326498724e-55</v>
+        <v>1.758002778825166e-55</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.761050234158581e-55</v>
+        <v>1.772753689865423e-55</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.77416813244824e-55</v>
+        <v>1.786259910350989e-55</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.786033003918445e-55</v>
+        <v>1.798351767994682e-55</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.796496699344855e-55</v>
+        <v>1.80886596399271e-55</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.805578117035176e-55</v>
+        <v>1.817822551911554e-55</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.813484246358635e-55</v>
+        <v>1.82544803519178e-55</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.820432110685274e-55</v>
+        <v>1.83197993065326e-55</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.826638733385133e-55</v>
+        <v>1.837655755115864e-55</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.832321137828256e-55</v>
+        <v>1.842713025399465e-55</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.83769634738468e-55</v>
+        <v>1.847389258323932e-55</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.842981385424449e-55</v>
+        <v>1.851921970709138e-55</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.848393275317603e-55</v>
+        <v>1.856548679374953e-55</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.854149040434182e-55</v>
+        <v>1.861506901141247e-55</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.86046570414423e-55</v>
+        <v>1.867034152827895e-55</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.867560289817785e-55</v>
+        <v>1.873367951254765e-55</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.875649820824889e-55</v>
+        <v>1.880745813241729e-55</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.884951320535584e-55</v>
+        <v>1.889405255608658e-55</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.895681812319911e-55</v>
+        <v>1.899583795175423e-55</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.908049216784387e-55</v>
+        <v>1.911509502117845e-55</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.921930713612721e-55</v>
+        <v>1.925067211091776e-55</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.936786759564951e-55</v>
+        <v>1.939709291038897e-55</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>1.9520512238578e-55</v>
+        <v>1.954860518944088e-55</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>1.967157975707991e-55</v>
+        <v>1.96994567179223e-55</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>1.981540884332247e-55</v>
+        <v>1.984389526568205e-55</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>1.994633818947294e-55</v>
+        <v>1.997616860256894e-55</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>2.005870648769854e-55</v>
+        <v>2.009052449843177e-55</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>2.014685243016651e-55</v>
+        <v>2.018121072311937e-55</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>2.020511470904407e-55</v>
+        <v>2.024247504648055e-55</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>2.022793550515218e-55</v>
+        <v>2.026866952748089e-55</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>2.021346331088168e-55</v>
+        <v>2.025788120420091e-55</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>2.016448558938256e-55</v>
+        <v>2.021287196694903e-55</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>2.008408277515166e-55</v>
+        <v>2.01366989434526e-55</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.997533530268585e-55</v>
+        <v>2.0032419261439e-55</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.984132360648197e-55</v>
+        <v>1.990309004863562e-55</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.968512812103687e-55</v>
+        <v>1.975176843276982e-55</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.950982928084741e-55</v>
+        <v>1.958151154156898e-55</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.931850752041062e-55</v>
+        <v>1.939537650276067e-55</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.9114243274223e-55</v>
+        <v>1.91964204440719e-55</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.890011697678155e-55</v>
+        <v>1.898770049323021e-55</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.867920906258315e-55</v>
+        <v>1.877227377796299e-55</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>1.845459996612463e-55</v>
+        <v>1.855319742599761e-55</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>1.822875272719151e-55</v>
+        <v>1.833288160627038e-55</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>1.800072862875912e-55</v>
+        <v>1.811017183704447e-55</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>1.776842364492075e-55</v>
+        <v>1.788269252663234e-55</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>1.752973271866924e-55</v>
+        <v>1.764806700287151e-55</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>1.728255079299742e-55</v>
+        <v>1.74039185935995e-55</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>1.70247728108981e-55</v>
+        <v>1.714787062665384e-55</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>1.675429371536412e-55</v>
+        <v>1.687754642987203e-55</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>1.64690084493883e-55</v>
+        <v>1.659056933109159e-55</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>1.616681195596345e-55</v>
+        <v>1.628456265815005e-55</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>1.584559917808241e-55</v>
+        <v>1.595714973888492e-55</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>1.550326513851317e-55</v>
+        <v>1.560595403296911e-55</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>1.5138251718759e-55</v>
+        <v>1.522950273164352e-55</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>1.475085341890951e-55</v>
+        <v>1.482938463930792e-55</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>1.434175667442511e-55</v>
+        <v>1.440783626761135e-55</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>1.391164792076614e-55</v>
+        <v>1.39670941282028e-55</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>1.3461213593393e-55</v>
+        <v>1.350939473273131e-55</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>1.299126641383338e-55</v>
+        <v>1.30370502247943e-55</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>1.250634874184239e-55</v>
+        <v>1.255460640536652e-55</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.201525821724972e-55</v>
+        <v>1.206915753646692e-55</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.152702446756038e-55</v>
+        <v>1.158793681610523e-55</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.105067712027941e-55</v>
+        <v>1.111817744229117e-55</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.059405595195128e-55</v>
+        <v>1.066615032345382e-55</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.015797079179242e-55</v>
+        <v>1.023244091220405e-55</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>9.740658881959864e-56</v>
+        <v>9.815554086522215e-56</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>9.340353620943155e-56</v>
+        <v>9.41399161583029e-56</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>8.955288407231856e-56</v>
+        <v>9.026255269550252e-56</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>8.583696639315516e-56</v>
+        <v>8.650846817104084e-56</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>8.223811715683691e-56</v>
+        <v>8.286268027913763e-56</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>7.873867034825939e-56</v>
+        <v>7.93102067140127e-56</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>7.532095995231815e-56</v>
+        <v>7.583606516988587e-56</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>7.196731995391189e-56</v>
+        <v>7.242527334098014e-56</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>6.866008433792653e-56</v>
+        <v>6.906284892150551e-56</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>6.538401517350518e-56</v>
+        <v>6.573603650758524e-56</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>6.214483075166233e-56</v>
+        <v>6.245130055988753e-56</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>5.895896497485345e-56</v>
+        <v>5.92249332934227e-56</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.584293810164469e-56</v>
+        <v>5.607330612415222e-56</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.281327039061461e-56</v>
+        <v>5.301279046805021e-56</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>4.988648210033863e-56</v>
+        <v>5.005975774108757e-56</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.707909348939225e-56</v>
+        <v>4.723057935923527e-56</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>4.440762481635091e-56</v>
+        <v>4.454162673846424e-56</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>4.188859633979006e-56</v>
+        <v>4.200927129474541e-56</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>3.953819973481532e-56</v>
+        <v>3.964955111917683e-56</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>3.736051325986255e-56</v>
+        <v>3.746621609166407e-56</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>3.534425107907845e-56</v>
+        <v>3.544743029658084e-56</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>3.347713709888234e-56</v>
+        <v>3.35803532713245e-56</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>3.174689522569355e-56</v>
+        <v>3.185214455329244e-56</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>3.01412493659314e-56</v>
+        <v>3.0249963679882e-56</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>2.86479234260152e-56</v>
+        <v>2.876097018849055e-56</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>2.725464131236429e-56</v>
+        <v>2.737232361651546e-56</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>2.594912693139796e-56</v>
+        <v>2.607118350135407e-56</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.471910418953557e-56</v>
+        <v>2.484470938040377e-56</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.355229699319641e-56</v>
+        <v>2.36800607910619e-56</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.243642924879981e-56</v>
+        <v>2.256439727072584e-56</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>2.135922486276508e-56</v>
+        <v>2.148487835679292e-56</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>2.030840774151157e-56</v>
+        <v>2.042866358666055e-56</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.927171012958204e-56</v>
+        <v>1.938292139213866e-56</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.824467869412168e-56</v>
+        <v>1.834315597735962e-56</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.724517365441151e-56</v>
+        <v>1.73286737772503e-56</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.629501210289703e-56</v>
+        <v>1.636300208802017e-56</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.541601113202379e-56</v>
+        <v>1.546966820587868e-56</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.462998783423731e-56</v>
+        <v>1.467219942703527e-56</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.39587593019831e-56</v>
+        <v>1.399412304769941e-56</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.34241426277067e-56</v>
+        <v>1.345896636408053e-56</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.30304791018974e-56</v>
+        <v>1.307158312320486e-56</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.269294854864775e-56</v>
+        <v>1.274155470450257e-56</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.231839103291631e-56</v>
+        <v>1.236950439208321e-56</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.190474459073686e-56</v>
+        <v>1.19531843323539e-56</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.147584877035888e-56</v>
+        <v>1.15179629303683e-56</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.105554492696681e-56</v>
+        <v>1.108921051773881e-56</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.066767441574789e-56</v>
+        <v>1.069229742608068e-56</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.033607859188629e-56</v>
+        <v>1.035259398700603e-56</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.008459881056893e-56</v>
+        <v>1.009547053212979e-56</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>9.936048446641903e-57</v>
+        <v>9.945206926663672e-57</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>9.887512783145899e-57</v>
+        <v>9.898791055009058e-57</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>9.909134711843897e-57</v>
+        <v>9.924630709763596e-57</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>9.96978612233547e-57</v>
+        <v>9.989785423151966e-57</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.003833890422019e-56</v>
+        <v>1.006131472739884e-56</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.008635022826327e-56</v>
+        <v>1.010921828144953e-56</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.010456100113588e-56</v>
+        <v>1.012450010508164e-56</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.00920578942808e-56</v>
+        <v>1.01073020343741e-56</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.004796182897379e-56</v>
+        <v>1.005780340570588e-56</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>9.971393726490666e-57</v>
+        <v>9.976183555455947e-57</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>9.861481916728672e-57</v>
+        <v>9.862622800832664e-57</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>9.71793741833599e-57</v>
+        <v>9.717378601366699e-57</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>9.541464347605158e-57</v>
+        <v>9.540839893056097e-57</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>9.332863698964104e-57</v>
+        <v>9.333408437621607e-57</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>9.092936466840752e-57</v>
+        <v>9.095485996783984e-57</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>8.822483645663031e-57</v>
+        <v>8.827474332263976e-57</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>8.522457637124996e-57</v>
+        <v>8.529940341049901e-57</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>8.196089994595504e-57</v>
+        <v>8.205936721051472e-57</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>7.848373774677785e-57</v>
+        <v>7.860437387801362e-57</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>7.484347752588734e-57</v>
+        <v>7.498466120723816e-57</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>7.109050703545245e-57</v>
+        <v>7.125046699243066e-57</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>6.727521402764207e-57</v>
+        <v>6.745202902783351e-57</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>6.344798625462521e-57</v>
+        <v>6.363958510768919e-57</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>5.965921146857075e-57</v>
+        <v>5.986337302624002e-57</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>5.595927742164764e-57</v>
+        <v>5.617363057772839e-57</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>5.239842180655434e-57</v>
+        <v>5.262044645336497e-57</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>4.900960251517132e-57</v>
+        <v>4.923673968035051e-57</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>4.579267934929785e-57</v>
+        <v>4.602254215413871e-57</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>4.27437730257489e-57</v>
+        <v>4.297417051712211e-57</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>3.985900426133943e-57</v>
+        <v>4.008794141169326e-57</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>3.713449377288437e-57</v>
+        <v>3.736017148024466e-57</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>3.45663622771987e-57</v>
+        <v>3.47871773651689e-57</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>3.215073049109963e-57</v>
+        <v>3.236527570886074e-57</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>2.98837191313953e-57</v>
+        <v>3.009078315370591e-57</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>2.776144891490948e-57</v>
+        <v>2.796001634210577e-57</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>2.578004055844886e-57</v>
+        <v>2.596929191644458e-57</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>2.393561477883611e-57</v>
+        <v>2.41149265191226e-57</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>2.222429229288061e-57</v>
+        <v>2.23932367925268e-57</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>2.064219381739917e-57</v>
+        <v>2.080053937905155e-57</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>1.918543860804413e-57</v>
+        <v>1.93331493848688e-57</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>1.784945098442653e-57</v>
+        <v>1.798665128216483e-57</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>1.662785053790447e-57</v>
+        <v>1.675473210837214e-57</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>1.551396768222229e-57</v>
+        <v>1.56307748686383e-57</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.450113283112432e-57</v>
+        <v>1.460816256811088e-57</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.35826763983549e-57</v>
+        <v>1.368027821193747e-57</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.275192879765836e-57</v>
+        <v>1.284050480526564e-57</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.200222044277904e-57</v>
+        <v>1.208222535324297e-57</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.132688174746129e-57</v>
+        <v>1.139882286101704e-57</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.071924312544943e-57</v>
+        <v>1.078368033373542e-57</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.01726349904878e-57</v>
+        <v>1.02301807765457e-57</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>9.680387756320739e-58</v>
+        <v>9.731707194595447e-58</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>9.235831836692586e-58</v>
+        <v>9.28164259303224e-58</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>8.832297645347675e-58</v>
+        <v>8.873369977003658e-58</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>8.463490355538552e-58</v>
+        <v>8.500613965735445e-58</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>8.126018910360659e-58</v>
+        <v>8.159746125725825e-58</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>7.817848106213896e-58</v>
+        <v>7.848373958963878e-58</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>7.536950390675547e-58</v>
+        <v>7.564111941911249e-58</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>7.281298211322892e-58</v>
+        <v>7.30457455102958e-58</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>7.048864015733216e-58</v>
+        <v>7.067376262780522e-58</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>6.837620251483799e-58</v>
+        <v>6.850131553625713e-58</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>6.645539366151919e-58</v>
+        <v>6.650454900026799e-58</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>6.470593807314861e-58</v>
+        <v>6.465960778445423e-58</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>6.309481248268316e-58</v>
+        <v>6.293394643750871e-58</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>6.152192774812534e-58</v>
+        <v>6.124930028215028e-58</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>5.986521761886316e-58</v>
+        <v>5.951242270884556e-58</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>5.800260309654171e-58</v>
+        <v>5.763005841784521e-58</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>5.581202792561495e-58</v>
+        <v>5.550897232329505e-58</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>5.337600541420668e-58</v>
+        <v>5.323775154704763e-58</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>5.141007448488325e-58</v>
+        <v>5.146097500693678e-58</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>4.990649617359698e-58</v>
+        <v>5.009796240927767e-58</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>4.827086041881042e-58</v>
+        <v>4.849207471158679e-58</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>4.622284097188957e-58</v>
+        <v>4.634894906224094e-58</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>4.401426141540081e-58</v>
+        <v>4.398491498935945e-58</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>4.194616238435215e-58</v>
+        <v>4.177278325457198e-58</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>4.030134922194811e-58</v>
+        <v>4.006286287966695e-58</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>3.906174894477363e-58</v>
+        <v>3.883418910023787e-58</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>3.796244615262563e-58</v>
+        <v>3.776120187011234e-58</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>3.675011753809476e-58</v>
+        <v>3.653309524219302e-58</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>3.53812403573833e-58</v>
+        <v>3.510294703410848e-58</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>3.394315052019131e-58</v>
+        <v>3.358842696704329e-58</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>3.252513278759254e-58</v>
+        <v>3.210965257124918e-58</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>3.119055382686284e-58</v>
+        <v>3.075184981008408e-58</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>2.993195555570188e-58</v>
+        <v>2.950489865013487e-58</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>2.872989247677201e-58</v>
+        <v>2.834254130893479e-58</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>2.756491909273556e-58</v>
+        <v>2.723852000401711e-58</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>2.641758990625483e-58</v>
+        <v>2.616657695291505e-58</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>2.526845941999218e-58</v>
+        <v>2.510045437316187e-58</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>2.409808213660994e-58</v>
+        <v>2.401389448229083e-58</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>2.288701255877042e-58</v>
+        <v>2.288063949783517e-58</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>2.161580518913595e-58</v>
+        <v>2.167443163732814e-58</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>2.027613446617237e-58</v>
+        <v>2.038089116101113e-58</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>1.894583604249467e-58</v>
+        <v>1.907767362497039e-58</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.774297670928636e-58</v>
+        <v>1.788540850083976e-58</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.678585028492942e-58</v>
+        <v>1.692496776513867e-58</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>1.619275058780588e-58</v>
+        <v>1.631722339438656e-58</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>1.608194785289488e-58</v>
+        <v>1.618302374068809e-58</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>1.6524100420101e-58</v>
+        <v>1.659552246320543e-58</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>1.744239967836294e-58</v>
+        <v>1.748014982268394e-58</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>1.8731573049402e-58</v>
+        <v>1.873382261334482e-58</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>2.028634795493947e-58</v>
+        <v>2.025345762940932e-58</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>2.200145181669665e-58</v>
+        <v>2.193597166509865e-58</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>2.377161205639486e-58</v>
+        <v>2.367828151463405e-58</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>2.549155609575539e-58</v>
+        <v>2.537730397223675e-58</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>2.705601135649955e-58</v>
+        <v>2.692995583212798e-58</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>2.836625294712228e-58</v>
+        <v>2.823945063728087e-58</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>2.939694881283587e-58</v>
+        <v>2.927958201016452e-58</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>3.016885493928884e-58</v>
+        <v>3.006846530413199e-58</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>3.070344067980111e-58</v>
+        <v>3.062490190061791e-58</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>3.102217538768862e-58</v>
+        <v>3.096769318105277e-58</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>3.114646194733835e-58</v>
+        <v>3.111558120370631e-58</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>3.109023330135474e-58</v>
+        <v>3.108064114402206e-58</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>3.085321296351921e-58</v>
+        <v>3.086226633871697e-58</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>3.043353275141457e-58</v>
+        <v>3.045842954421962e-58</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>2.982932448262365e-58</v>
+        <v>2.986710351695864e-58</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>2.903891292750137e-58</v>
+        <v>2.908645718383082e-58</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>2.80749020863778e-58</v>
+        <v>2.812917682330543e-58</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>2.697374048618284e-58</v>
+        <v>2.703219087371113e-58</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>2.577414178312039e-58</v>
+        <v>2.583473067613017e-58</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>2.451481963339433e-58</v>
+        <v>2.457602757164475e-58</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>2.32344876932086e-58</v>
+        <v>2.329531290133711e-58</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>2.197185961876708e-58</v>
+        <v>2.203181800628945e-58</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>2.076255784065314e-58</v>
+        <v>2.082164264496215e-58</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.961661772001601e-58</v>
+        <v>1.967496545849183e-58</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.853143855022213e-58</v>
+        <v>1.858916405207193e-58</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.750433024230943e-58</v>
+        <v>1.756152548165065e-58</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.653260270731584e-58</v>
+        <v>1.658933680317621e-58</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.56135658562793e-58</v>
+        <v>1.566988507259682e-58</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.474452960023772e-58</v>
+        <v>1.48004573458607e-58</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.392280385022904e-58</v>
+        <v>1.397834067891606e-58</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.314569851729119e-58</v>
+        <v>1.320082212771111e-58</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.241052351246209e-58</v>
+        <v>1.246518874819407e-58</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.171458874677968e-58</v>
+        <v>1.176872759631316e-58</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.105520413128187e-58</v>
+        <v>1.110872572801658e-58</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.042974957790255e-58</v>
+        <v>1.048254138640868e-58</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>9.836578654024285e-59</v>
+        <v>9.88852296995531e-59</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>9.274758427059599e-59</v>
+        <v>9.325744468378528e-59</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>8.743372352807126e-59</v>
+        <v>8.793296537509934e-59</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>8.241503887065506e-59</v>
+        <v>8.290269833181137e-59</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>7.768236485633368e-59</v>
+        <v>7.815755011223735e-59</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>7.322653604309352e-59</v>
+        <v>7.368842727469335e-59</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>6.903838698892089e-59</v>
+        <v>6.948623637749539e-59</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>6.510875225180219e-59</v>
+        <v>6.554188397895951e-59</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>6.142846638972373e-59</v>
+        <v>6.184627663740172e-59</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>5.798836396067508e-59</v>
+        <v>5.83903209111413e-59</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>5.477927952263296e-59</v>
+        <v>5.51649233584846e-59</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>5.179204763359614e-59</v>
+        <v>5.216099053776012e-59</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>4.901750285153942e-59</v>
+        <v>4.936942900727229e-59</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>4.644647973445987e-59</v>
+        <v>4.678114532534795e-59</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>4.406981284033612e-59</v>
+        <v>4.438704605029532e-59</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>4.187833672715709e-59</v>
+        <v>4.217803774043305e-59</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>3.98628859529091e-59</v>
+        <v>4.014502695407714e-59</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>3.801429507557855e-59</v>
+        <v>3.827892024954366e-59</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>3.632339865315177e-59</v>
+        <v>3.657062418514863e-59</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>3.47810312436151e-59</v>
+        <v>3.501104531920809e-59</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>3.337802740495492e-59</v>
+        <v>3.359109021003805e-59</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>3.210522169515755e-59</v>
+        <v>3.230166541595457e-59</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>3.095344867220937e-59</v>
+        <v>3.113367749527369e-59</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>2.99135428940967e-59</v>
+        <v>3.007803300631141e-59</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>2.897633891880591e-59</v>
+        <v>2.912563850738379e-59</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>2.813267130432334e-59</v>
+        <v>2.826740055680684e-59</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>2.737337460863536e-59</v>
+        <v>2.749422571289663e-59</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>2.668928338972831e-59</v>
+        <v>2.679702053396917e-59</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>2.607123220558852e-59</v>
+        <v>2.616669157834048e-59</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>2.551005561420238e-59</v>
+        <v>2.559414540432662e-59</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>2.49965881735562e-59</v>
+        <v>2.507028857024361e-59</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>2.452166444163638e-59</v>
+        <v>2.458602763440749e-59</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>2.407611897642921e-59</v>
+        <v>2.413226915513429e-59</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>2.36507863359211e-59</v>
+        <v>2.369991969074005e-59</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>2.323650107809837e-59</v>
+        <v>2.327988579954078e-59</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>2.282409776094736e-59</v>
+        <v>2.286307403985254e-59</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>2.240444124487794e-59</v>
+        <v>2.244042074696825e-59</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>2.197225352996779e-59</v>
+        <v>2.200665251271917e-59</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>2.152985249285322e-59</v>
+        <v>2.156396009235039e-59</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>2.108044352521887e-59</v>
+        <v>2.111540636656897e-59</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>2.062723201874938e-59</v>
+        <v>2.066405421608198e-59</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>2.017342336512939e-59</v>
+        <v>2.02129665215965e-59</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.972222295604355e-59</v>
+        <v>1.976520616381961e-59</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.92768361831765e-59</v>
+        <v>1.932383602345838e-59</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.884046843821287e-59</v>
+        <v>1.889191898121987e-59</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.841632511283732e-59</v>
+        <v>1.847251791781117e-59</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.800761159873487e-59</v>
+        <v>1.806869571393973e-59</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.7617533287589e-59</v>
+        <v>1.768351525031147e-59</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.724929557108586e-59</v>
+        <v>1.732003940763497e-59</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.690610384090867e-59</v>
+        <v>1.698133106661589e-59</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.659116348874341e-59</v>
+        <v>1.667045310796261e-59</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.630767990627373e-59</v>
+        <v>1.639046841238126e-59</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.605885848518463e-59</v>
+        <v>1.614443986057923e-59</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.584790461716073e-59</v>
+        <v>1.593543033326359e-59</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.567802369388668e-59</v>
+        <v>1.576650271114142e-59</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.555242110704711e-59</v>
+        <v>1.564071987491978e-59</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.547430224832668e-59</v>
+        <v>1.556114470530577e-59</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.544687250941003e-59</v>
+        <v>1.553084008300644e-59</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.547333728198179e-59</v>
+        <v>1.555286888872887e-59</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.55569019577266e-59</v>
+        <v>1.563029400318014e-59</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.570077192832912e-59</v>
+        <v>1.576617830706732e-59</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.590815258547398e-59</v>
+        <v>1.596358468109749e-59</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.618224932084583e-59</v>
+        <v>1.622557600597771e-59</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.65262675261293e-59</v>
+        <v>1.655521516241507e-59</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.694249639907499e-59</v>
+        <v>1.695471453470767e-59</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.742313940314254e-59</v>
+        <v>1.741692399068487e-59</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>1.795415169489376e-59</v>
+        <v>1.792889313866638e-59</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>1.852139531844029e-59</v>
+        <v>1.847758515133683e-59</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>1.911073231789375e-59</v>
+        <v>1.904996320138092e-59</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>1.970802473736578e-59</v>
+        <v>1.963299046148329e-59</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>2.029913462096801e-59</v>
+        <v>2.021363010432861e-59</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>2.086992401281205e-59</v>
+        <v>2.077884530260153e-59</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>2.140625495700956e-59</v>
+        <v>2.131559922898672e-59</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>2.189398949767215e-59</v>
+        <v>2.181085505616884e-59</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>2.232003717364638e-59</v>
+        <v>2.225241464867669e-59</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>2.267962640324795e-59</v>
+        <v>2.263474050247776e-59</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>2.297195264753504e-59</v>
+        <v>2.295547138381805e-59</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>2.319623579892986e-59</v>
+        <v>2.321226562026939e-59</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>2.335169574985469e-59</v>
+        <v>2.340278153940365e-59</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>2.343755239273174e-59</v>
+        <v>2.352467746879266e-59</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>2.345302561998327e-59</v>
+        <v>2.357561173600825e-59</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>2.339733532403151e-59</v>
+        <v>2.355324266862226e-59</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>2.326970139729871e-59</v>
+        <v>2.345522859420653e-59</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>2.306934373220734e-59</v>
+        <v>2.327922784033311e-59</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>2.279548222117895e-59</v>
+        <v>2.302289873457321e-59</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>2.244733675663684e-59</v>
+        <v>2.268389960449966e-59</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.202412723100191e-59</v>
+        <v>2.225988877768299e-59</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.152507353669804e-59</v>
+        <v>2.174852458169669e-59</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.095060617333897e-59</v>
+        <v>2.114920302805643e-59</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.03086518199328e-59</v>
+        <v>2.047208001031067e-59</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.961000281188974e-59</v>
+        <v>1.973142473403189e-59</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.886545723939999e-59</v>
+        <v>1.894151466510091e-59</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.80858131926537e-59</v>
+        <v>1.811662726939859e-59</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.728186876184106e-59</v>
+        <v>1.727104001280577e-59</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.646442203715226e-59</v>
+        <v>1.641903036120329e-59</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.564427110877745e-59</v>
+        <v>1.557487578047199e-59</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.483221406690683e-59</v>
+        <v>1.475285373649272e-59</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.403888693965968e-59</v>
+        <v>1.396689261063692e-59</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>1.327141035801805e-59</v>
+        <v>1.322334855791603e-59</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>1.253350346521435e-59</v>
+        <v>1.252125086977674e-59</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>1.182874613203683e-59</v>
+        <v>1.18593288424072e-59</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>1.11607182292737e-59</v>
+        <v>1.123631177199554e-59</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>1.053299962771321e-59</v>
+        <v>1.065092895472989e-59</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>9.949170198143588e-60</v>
+        <v>1.010190968679839e-59</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>9.412809811353062e-60</v>
+        <v>9.58798326438917e-60</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>8.927498338129871e-60</v>
+        <v>9.107878983690376e-60</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>8.496805747464507e-60</v>
+        <v>8.660325829388291e-60</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>8.121073987486779e-60</v>
+        <v>8.243951235472348e-60</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>7.792788669635725e-60</v>
+        <v>7.857135482490253e-60</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>7.503263001228902e-60</v>
+        <v>7.498221968187313e-60</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>7.243810189583877e-60</v>
+        <v>7.16555409030884e-60</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>7.005743442018206e-60</v>
+        <v>6.85747524660014e-60</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>6.780375965849451e-60</v>
+        <v>6.572328834806525e-60</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>6.559020968395173e-60</v>
+        <v>6.308458252673302e-60</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>6.334148526012309e-60</v>
+        <v>6.064334951937069e-60</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>6.107119480049494e-60</v>
+        <v>5.839414504320364e-60</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>5.883416906390989e-60</v>
+        <v>5.633608772247044e-60</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>5.66854645750733e-60</v>
+        <v>5.44683211714637e-60</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>5.468013785869056e-60</v>
+        <v>5.278998900447597e-60</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>5.287324543946715e-60</v>
+        <v>5.13002348357999e-60</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>5.13187129000413e-60</v>
+        <v>4.999806996652743e-60</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>5.003426094034137e-60</v>
+        <v>4.88782699512083e-60</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>4.899463239915996e-60</v>
+        <v>4.79305822014276e-60</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>4.817207207709162e-60</v>
+        <v>4.714446187380069e-60</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>4.753882477473819e-60</v>
+        <v>4.650936412494967e-60</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>4.706713529269615e-60</v>
+        <v>4.60147441114915e-60</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>4.67292484315648e-60</v>
+        <v>4.565005699004588e-60</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>4.649740899194274e-60</v>
+        <v>4.540475791723186e-60</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>4.63443087271887e-60</v>
+        <v>4.526826223043485e-60</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>4.625329444011925e-60</v>
+        <v>4.522903600362453e-60</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>4.621858065521648e-60</v>
+        <v>4.527457710028708e-60</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>4.623487138937198e-60</v>
+        <v>4.539233977479735e-60</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>4.62968706594774e-60</v>
+        <v>4.556977828153029e-60</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>4.639928248242437e-60</v>
+        <v>4.579434687486079e-60</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>4.653681087510452e-60</v>
+        <v>4.605349980916376e-60</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>4.670415985440949e-60</v>
+        <v>4.633469133881413e-60</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>4.68960334372309e-60</v>
+        <v>4.662537571818678e-60</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>4.710664457981819e-60</v>
+        <v>4.691340729017711e-60</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>4.732661209883027e-60</v>
+        <v>4.718956869994629e-60</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>4.754495754199234e-60</v>
+        <v>4.74459439573131e-60</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>4.77506952103748e-60</v>
+        <v>4.767462297626207e-60</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>4.793283940504799e-60</v>
+        <v>4.786769567077763e-60</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>4.808040442708234e-60</v>
+        <v>4.801725195484432e-60</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>4.818240457754819e-60</v>
+        <v>4.811538174244664e-60</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>4.822785415751594e-60</v>
+        <v>4.815417494756903e-60</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>4.820576746805597e-60</v>
+        <v>4.812572148419603e-60</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>4.810514837574932e-60</v>
+        <v>4.802208794004932e-60</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>4.791398203184796e-60</v>
+        <v>4.783306356845286e-60</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>4.761839431618941e-60</v>
+        <v>4.754428122827402e-60</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>4.720431323977651e-60</v>
+        <v>4.714093144332271e-60</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>4.665766681361203e-60</v>
+        <v>4.660820473740878e-60</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>4.596438304869871e-60</v>
+        <v>4.593129163434205e-60</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>4.511038995603938e-60</v>
+        <v>4.509538265793246e-60</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>4.408161554663682e-60</v>
+        <v>4.408566833198981e-60</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>4.28639878314938e-60</v>
+        <v>4.288733918032401e-60</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>4.144344813647077e-60</v>
+        <v>4.148559913495736e-60</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>3.981769670214736e-60</v>
+        <v>3.987749348820334e-60</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>3.801776481498318e-60</v>
+        <v>3.809363227304841e-60</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>3.608054874994891e-60</v>
+        <v>3.617053163233047e-60</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>3.404294478202821e-60</v>
+        <v>3.41447077089002e-60</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>3.194185521839136e-60</v>
+        <v>3.20526826998663e-60</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>2.9835104153134e-60</v>
+        <v>2.995197714000545e-60</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>2.78482789226643e-60</v>
+        <v>2.796812274538801e-60</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>2.612066133368124e-60</v>
+        <v>2.624039580908331e-60</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>2.479153319288178e-60</v>
+        <v>2.490807262415866e-60</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>2.40001751779198e-60</v>
+        <v>2.411042836405235e-60</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>2.381031306346429e-60</v>
+        <v>2.391181328210975e-60</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>2.400548710069626e-60</v>
+        <v>2.409872831774456e-60</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>2.430430350082383e-60</v>
+        <v>2.439328179567476e-60</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>2.443095395350509e-60</v>
+        <v>2.452302095227902e-60</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>2.425471518779127e-60</v>
+        <v>2.435677093228643e-60</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>2.379983033516109e-60</v>
+        <v>2.391425685806068e-60</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>2.309810696805428e-60</v>
+        <v>2.322256979680227e-60</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>2.218135265891055e-60</v>
+        <v>2.230880081571165e-60</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>2.108137726270948e-60</v>
+        <v>2.120004368885665e-60</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>1.984563744514097e-60</v>
+        <v>1.994194776590684e-60</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.857459729496217e-60</v>
+        <v>1.864302397672143e-60</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.737993501924092e-60</v>
+        <v>1.74250820903911e-60</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.637214059286016e-60</v>
+        <v>1.64086366114536e-60</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.558196772189757e-60</v>
+        <v>1.562728337326645e-60</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>1.491146343497824e-60</v>
+        <v>1.497431802278747e-60</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>1.42509829717357e-60</v>
+        <v>1.433029125692735e-60</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>1.349374813247435e-60</v>
+        <v>1.357893057311314e-60</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>1.260299148712155e-60</v>
+        <v>1.268155130821554e-60</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>1.16143009034128e-60</v>
+        <v>1.167965490846351e-60</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>1.056659977651748e-60</v>
+        <v>1.061843931901428e-60</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>9.494945568206046e-61</v>
+        <v>9.537901976625254e-61</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>8.420274459403777e-61</v>
+        <v>8.459044170920843e-61</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>7.360299249213663e-61</v>
+        <v>7.398531052613319e-61</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>6.332732736738705e-61</v>
+        <v>6.373027772414955e-61</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>5.355287721081895e-61</v>
+        <v>5.399199481038027e-61</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>4.445677001346225e-61</v>
+        <v>4.493711329194812e-61</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>3.621613376634694e-61</v>
+        <v>3.673228467597579e-61</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.900809646050295e-61</v>
+        <v>2.954416046958607e-61</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>2.300978608696539e-61</v>
+        <v>2.353939217990688e-61</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.839526939564596e-61</v>
+        <v>1.888177580862588e-61</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.512510043238747e-61</v>
+        <v>1.553594412162689e-61</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.281048583873994e-61</v>
+        <v>1.314066094053847e-61</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>1.103271156961529e-61</v>
+        <v>1.130661903532071e-61</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>9.527438996970548e-62</v>
+        <v>9.778094849769862e-62</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>8.276164413719693e-62</v>
+        <v>8.512089965712927e-62</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>7.279373442321304e-62</v>
+        <v>7.484498834119004e-62</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>6.515838929290412e-62</v>
+        <v>6.670586918819048e-62</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>5.954615760518586e-62</v>
+        <v>6.045338168638426e-62</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>5.564713276779656e-62</v>
+        <v>5.583735213027528e-62</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.315140818847456e-62</v>
+        <v>5.260760681436746e-62</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>5.174907727495818e-62</v>
+        <v>5.051397203316472e-62</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>5.113043609906227e-62</v>
+        <v>4.930642128006117e-62</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>5.105448385456159e-62</v>
+        <v>4.878482847224265e-62</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>5.144863358286715e-62</v>
+        <v>4.887138980468538e-62</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>5.226563133496233e-62</v>
+        <v>4.950670133364577e-62</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>5.345822316183051e-62</v>
+        <v>5.06313591153803e-62</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>5.497915511445506e-62</v>
+        <v>5.218595920614538e-62</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>5.678117324381935e-62</v>
+        <v>5.411109766219746e-62</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>5.881702360090677e-62</v>
+        <v>5.634737053979297e-62</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>6.103945223670069e-62</v>
+        <v>5.883537389518833e-62</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>6.340120520218448e-62</v>
+        <v>6.151570378464001e-62</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>6.585502854834148e-62</v>
+        <v>6.43289562644044e-62</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>6.835366832615514e-62</v>
+        <v>6.721572739073798e-62</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>7.084987058660876e-62</v>
+        <v>7.011661321989717e-62</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>7.329638138068577e-62</v>
+        <v>7.29722098081384e-62</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>7.564594675936953e-62</v>
+        <v>7.572311321171811e-62</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>7.785131277364339e-62</v>
+        <v>7.830991948689275e-62</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>7.986522547449072e-62</v>
+        <v>8.06732246899187e-62</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>8.164043091289493e-62</v>
+        <v>8.275362487705248e-62</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>8.312967513983939e-62</v>
+        <v>8.449171610455045e-62</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>8.428570420630747e-62</v>
+        <v>8.582809442866912e-62</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>8.506315924444521e-62</v>
+        <v>8.670587336016448e-62</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>8.545220538467572e-62</v>
+        <v>8.711535702677881e-62</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>8.547455734937152e-62</v>
+        <v>8.708876051172042e-62</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>8.515302655139281e-62</v>
+        <v>8.665975575844038e-62</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>8.451042440360076e-62</v>
+        <v>8.586201471039081e-62</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>8.356956231885321e-62</v>
+        <v>8.472920931102002e-62</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>8.235325171001404e-62</v>
+        <v>8.329501150378343e-62</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>8.088430398993889e-62</v>
+        <v>8.159309323212676e-62</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>7.918553057149359e-62</v>
+        <v>7.965712643950761e-62</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>7.727974286753382e-62</v>
+        <v>7.752078306937186e-62</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>7.518975229092139e-62</v>
+        <v>7.521773506517238e-62</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>7.293837025451655e-62</v>
+        <v>7.278165437036033e-62</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>7.054840817117954e-62</v>
+        <v>7.024621292838683e-62</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>6.804267745377063e-62</v>
+        <v>6.764508268270299e-62</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>6.544398951515007e-62</v>
+        <v>6.501193557675997e-62</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>6.277515576817813e-62</v>
+        <v>6.238044355400893e-62</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>6.005898762571504e-62</v>
+        <v>5.978427855790093e-62</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>5.731829650062107e-62</v>
+        <v>5.725711253188717e-62</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>5.457589380575648e-62</v>
+        <v>5.483261741941876e-62</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>5.185459095398153e-62</v>
+        <v>5.254446516394682e-62</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>4.917537448995248e-62</v>
+        <v>5.040820998092441e-62</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>4.653616678450308e-62</v>
+        <v>4.821041945164069e-62</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>4.391908172548079e-62</v>
+        <v>4.558071075724952e-62</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>4.130592469140438e-62</v>
+        <v>4.214563812449986e-62</v>
       </c>
     </row>
   </sheetData>
